--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_2_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_2_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976919</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30016.10408050091</v>
+        <v>1876143.949976919</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264757874.552845</v>
+        <v>49592915.66659404</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11242.50263013257</v>
+        <v>1072961.571962996</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22288.67004925841</v>
+        <v>2111947.630237386</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33334.83746838426</v>
+        <v>3150933.688511778</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45533.05653064653</v>
+        <v>4127496.038857935</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57731.27559290877</v>
+        <v>5104058.389204091</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69929.494655171</v>
+        <v>6080620.739550245</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82127.71371743325</v>
+        <v>7057183.089896397</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>94325.93277969552</v>
+        <v>8033745.440242548</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106524.1518419578</v>
+        <v>9010307.790588699</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118019.7934356396</v>
+        <v>10019433.66263179</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129187.9721273927</v>
+        <v>11058419.72090618</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140356.1508191457</v>
+        <v>12097405.77918058</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151524.3295108987</v>
+        <v>13136391.83745498</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163722.548573161</v>
+        <v>14112954.18780114</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176769.0734758951</v>
+        <v>14999638.88431209</v>
       </c>
     </row>
   </sheetData>
